--- a/Project/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/Project/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -642,7 +642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,25 +727,25 @@
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
       <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6">
-        <v>6</v>
-      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>20</v>
+      </c>
       <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6">
-        <v>18</v>
-      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
@@ -892,7 +892,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5">
         <v>10</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C44" s="11">
         <f>SUM(C6:C43)</f>
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D44" s="11">
         <v>370</v>
